--- a/Field Report 3 oktober.xlsx
+++ b/Field Report 3 oktober.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Gweh\Kuliah\Semester-9\Proposal Skripsi\hitungnpk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103908E7-744B-4F5C-9D3F-CA9452906BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B6D9C-241D-4A2B-B7AB-53F6B06C4458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{11896DCB-E961-45D0-9E9E-2BE6AFEF41FD}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="2" xr2:uid="{11896DCB-E961-45D0-9E9E-2BE6AFEF41FD}"/>
   </bookViews>
   <sheets>
     <sheet name="13 Sept 2024" sheetId="1" r:id="rId1"/>
     <sheet name="3 Oct 2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="122">
   <si>
     <t>Prioritas</t>
   </si>
@@ -101,17 +93,380 @@
   </si>
   <si>
     <t>K (ppm)</t>
+  </si>
+  <si>
+    <t>Nama file</t>
+  </si>
+  <si>
+    <t>Loc pixel</t>
+  </si>
+  <si>
+    <t>79, 283</t>
+  </si>
+  <si>
+    <t>253, 1237</t>
+  </si>
+  <si>
+    <t>430, 286</t>
+  </si>
+  <si>
+    <t>600, 1237</t>
+  </si>
+  <si>
+    <t>600, 854</t>
+  </si>
+  <si>
+    <t>605, 476</t>
+  </si>
+  <si>
+    <t>774, 289</t>
+  </si>
+  <si>
+    <t>954, 1242</t>
+  </si>
+  <si>
+    <t>1126, 286</t>
+  </si>
+  <si>
+    <t>1303, 1239</t>
+  </si>
+  <si>
+    <t>Urutan</t>
+  </si>
+  <si>
+    <t>mask filter</t>
+  </si>
+  <si>
+    <t>standarisasi</t>
+  </si>
+  <si>
+    <t>cropping</t>
+  </si>
+  <si>
+    <t>grayscale</t>
+  </si>
+  <si>
+    <t>histogram eq</t>
+  </si>
+  <si>
+    <t>7bright_down.jpg</t>
+  </si>
+  <si>
+    <t>7bright_up.jpg</t>
+  </si>
+  <si>
+    <t>7flip_h.jpg</t>
+  </si>
+  <si>
+    <t>7flip_v.jpg</t>
+  </si>
+  <si>
+    <t>7original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7rotate_30.jpg</t>
+  </si>
+  <si>
+    <t>7zoom.jpg</t>
+  </si>
+  <si>
+    <t>10bright_down.jpg</t>
+  </si>
+  <si>
+    <t>10bright_up.jpg</t>
+  </si>
+  <si>
+    <t>10flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>23flip_h.jpg</t>
+  </si>
+  <si>
+    <t>10flip_v.jpg</t>
+  </si>
+  <si>
+    <t>10original.jpg</t>
+  </si>
+  <si>
+    <t>10rotate_30.jpg</t>
+  </si>
+  <si>
+    <t>10zoom.jpg</t>
+  </si>
+  <si>
+    <t>23bright_down.jpg</t>
+  </si>
+  <si>
+    <t>23bright_up.jpg</t>
+  </si>
+  <si>
+    <t>23flip_v.jpg</t>
+  </si>
+  <si>
+    <t>23original.jpg</t>
+  </si>
+  <si>
+    <t>23rotate_30.jpg</t>
+  </si>
+  <si>
+    <t>23zoom.jpg</t>
+  </si>
+  <si>
+    <t>26bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>26bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>26flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>26flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>26original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>26rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>26zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>28zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>39zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>42zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>55zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58bright_down.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58bright_up.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58flip_h.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58flip_v.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58original.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58rotate_30.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>58zoom.jpg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>27.54</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30.34</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30.9</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>38.89</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>35.92</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>23.12</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>34.65</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>22.9</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>35.73</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>23.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0.0782</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0.0391</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +474,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +482,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +490,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,8 +498,15 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -654,7 +1016,25 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,24 +1076,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,9 +1192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -870,7 +1232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -976,7 +1338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1118,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,13 +1494,13 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1196,7 +1558,7 @@
         <v>0.999969</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1225,7 +1587,7 @@
         <v>1.38245E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1254,7 +1616,7 @@
         <v>0.412323</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1283,7 +1645,7 @@
         <v>0.91787700000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1312,7 +1674,7 @@
         <v>0.98608399999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1341,7 +1703,7 @@
         <v>0.38720700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1370,7 +1732,7 @@
         <v>0.31353799999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1399,7 +1761,7 @@
         <v>0.59845000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1428,7 +1790,7 @@
         <v>0.999969</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1457,7 +1819,7 @@
         <v>2.8961199999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="13">
         <v>16</v>
       </c>
@@ -1486,7 +1848,7 @@
         <v>0.47991899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="13">
         <v>24</v>
       </c>
@@ -1515,7 +1877,7 @@
         <v>0.40420499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="13">
         <v>25</v>
       </c>
@@ -1544,7 +1906,7 @@
         <v>0.38284299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="13">
         <v>26</v>
       </c>
@@ -1573,7 +1935,7 @@
         <v>0.95941200000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="13">
         <v>27</v>
       </c>
@@ -1602,7 +1964,7 @@
         <v>0.49322500000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="13">
         <v>28</v>
       </c>
@@ -1631,7 +1993,7 @@
         <v>0.99704000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="13">
         <v>29</v>
       </c>
@@ -1660,7 +2022,7 @@
         <v>0.37908900000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="13">
         <v>30</v>
       </c>
@@ -1689,7 +2051,7 @@
         <v>0.77841199999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="13">
         <v>31</v>
       </c>
@@ -1718,7 +2080,7 @@
         <v>0.90557900000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="13">
         <v>32</v>
       </c>
@@ -1747,7 +2109,7 @@
         <v>0.79165600000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="13">
         <v>61</v>
       </c>
@@ -1776,7 +2138,7 @@
         <v>0.99105799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="13">
         <v>62</v>
       </c>
@@ -1805,7 +2167,7 @@
         <v>0.98938000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="13">
         <v>63</v>
       </c>
@@ -1834,7 +2196,7 @@
         <v>0.85028099999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="13">
         <v>64</v>
       </c>
@@ -1864,6 +2226,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1873,76 +2236,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2C7B75-DCF8-4AD2-8E80-3DE82BC017CC}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:34" ht="27" thickBot="1">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="40" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="31" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-    </row>
-    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+    </row>
+    <row r="2" spans="1:34" ht="18.600000000000001" thickBot="1">
+      <c r="A2" s="41"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2018,27 +2381,27 @@
       <c r="AA2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="18.600000000000001" thickTop="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2120,17 +2483,17 @@
       <c r="AA3" s="11">
         <v>3.69</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3" s="31">
         <v>0.14981</v>
       </c>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -2222,7 +2585,7 @@
       <c r="AG4" s="30"/>
       <c r="AH4" s="30"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -2314,7 +2677,7 @@
       <c r="AG5" s="30"/>
       <c r="AH5" s="30"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="18">
         <v>1</v>
       </c>
@@ -2394,19 +2757,19 @@
       <c r="AE6" s="18">
         <v>0.02</v>
       </c>
-      <c r="AF6" s="52">
+      <c r="AF6" s="36">
         <f>AC6*10000</f>
         <v>5600.0000000000009</v>
       </c>
       <c r="AG6" s="18">
         <v>27.54</v>
       </c>
-      <c r="AH6" s="52">
+      <c r="AH6" s="36">
         <f>(AE6*39.1)*0.1</f>
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -2500,19 +2863,19 @@
       <c r="AE7" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="36">
         <f t="shared" ref="AF7:AF31" si="0">AC7*10000</f>
         <v>6800.0000000000009</v>
       </c>
       <c r="AG7" s="18">
         <v>30.34</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AH7" s="36">
         <f t="shared" ref="AH7:AH31" si="1">(AE7*39.1)*0.1</f>
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -2604,7 +2967,7 @@
       <c r="AG8" s="30"/>
       <c r="AH8" s="30"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -2696,7 +3059,7 @@
       <c r="AG9" s="30"/>
       <c r="AH9" s="30"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -2788,7 +3151,7 @@
       <c r="AG10" s="30"/>
       <c r="AH10" s="30"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -2880,7 +3243,7 @@
       <c r="AG11" s="30"/>
       <c r="AH11" s="30"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -2972,7 +3335,7 @@
       <c r="AG12" s="30"/>
       <c r="AH12" s="30"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="13">
         <v>2</v>
       </c>
@@ -3064,7 +3427,7 @@
       <c r="AG13" s="30"/>
       <c r="AH13" s="30"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="18">
         <v>1</v>
       </c>
@@ -3144,19 +3507,19 @@
       <c r="AE14" s="18">
         <v>0.02</v>
       </c>
-      <c r="AF14" s="52">
+      <c r="AF14" s="36">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
       <c r="AG14" s="18">
         <v>30.9</v>
       </c>
-      <c r="AH14" s="52">
+      <c r="AH14" s="36">
         <f t="shared" si="1"/>
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" s="18">
         <v>1</v>
       </c>
@@ -3250,19 +3613,19 @@
       <c r="AE15" s="18">
         <v>0.02</v>
       </c>
-      <c r="AF15" s="52">
+      <c r="AF15" s="36">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="AG15" s="18">
         <v>38.89</v>
       </c>
-      <c r="AH15" s="52">
+      <c r="AH15" s="36">
         <f t="shared" si="1"/>
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="A16" s="18">
         <v>1</v>
       </c>
@@ -3342,19 +3705,19 @@
       <c r="AE16" s="18">
         <v>0.02</v>
       </c>
-      <c r="AF16" s="52">
+      <c r="AF16" s="36">
         <f t="shared" si="0"/>
         <v>7600</v>
       </c>
       <c r="AG16" s="18">
         <v>35.92</v>
       </c>
-      <c r="AH16" s="52">
+      <c r="AH16" s="36">
         <f t="shared" si="1"/>
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34">
       <c r="A17" s="18">
         <v>1</v>
       </c>
@@ -3434,19 +3797,19 @@
       <c r="AE17" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF17" s="52">
+      <c r="AF17" s="36">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="AG17" s="18">
         <v>23.12</v>
       </c>
-      <c r="AH17" s="52">
+      <c r="AH17" s="36">
         <f t="shared" si="1"/>
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34">
       <c r="A18" s="13">
         <v>2</v>
       </c>
@@ -3538,7 +3901,7 @@
       <c r="AG18" s="30"/>
       <c r="AH18" s="30"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" s="13">
         <v>2</v>
       </c>
@@ -3630,7 +3993,7 @@
       <c r="AG19" s="30"/>
       <c r="AH19" s="30"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34">
       <c r="A20" s="13">
         <v>2</v>
       </c>
@@ -3722,7 +4085,7 @@
       <c r="AG20" s="30"/>
       <c r="AH20" s="30"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34">
       <c r="A21" s="13">
         <v>2</v>
       </c>
@@ -3814,7 +4177,7 @@
       <c r="AG21" s="30"/>
       <c r="AH21" s="30"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="A22" s="18">
         <v>1</v>
       </c>
@@ -3894,19 +4257,19 @@
       <c r="AE22" s="18">
         <v>0.02</v>
       </c>
-      <c r="AF22" s="52">
+      <c r="AF22" s="36">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
       <c r="AG22" s="18">
         <v>34.65</v>
       </c>
-      <c r="AH22" s="52">
+      <c r="AH22" s="36">
         <f t="shared" si="1"/>
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="A23" s="18">
         <v>1</v>
       </c>
@@ -3986,19 +4349,19 @@
       <c r="AE23" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF23" s="52">
+      <c r="AF23" s="36">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="AG23" s="18">
         <v>22.9</v>
       </c>
-      <c r="AH23" s="52">
+      <c r="AH23" s="36">
         <f t="shared" si="1"/>
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="A24" s="13">
         <v>2</v>
       </c>
@@ -4090,7 +4453,7 @@
       <c r="AG24" s="30"/>
       <c r="AH24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="A25" s="13">
         <v>2</v>
       </c>
@@ -4182,7 +4545,7 @@
       <c r="AG25" s="30"/>
       <c r="AH25" s="30"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="A26" s="13">
         <v>2</v>
       </c>
@@ -4274,7 +4637,7 @@
       <c r="AG26" s="30"/>
       <c r="AH26" s="30"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="A27" s="13">
         <v>2</v>
       </c>
@@ -4366,7 +4729,7 @@
       <c r="AG27" s="30"/>
       <c r="AH27" s="30"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="A28" s="13">
         <v>2</v>
       </c>
@@ -4458,7 +4821,7 @@
       <c r="AG28" s="30"/>
       <c r="AH28" s="30"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="A29" s="13">
         <v>2</v>
       </c>
@@ -4550,7 +4913,7 @@
       <c r="AG29" s="30"/>
       <c r="AH29" s="30"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34">
       <c r="A30" s="18">
         <v>1</v>
       </c>
@@ -4630,19 +4993,19 @@
       <c r="AE30" s="18">
         <v>0.02</v>
       </c>
-      <c r="AF30" s="52">
+      <c r="AF30" s="36">
         <f t="shared" si="0"/>
         <v>12700</v>
       </c>
       <c r="AG30" s="18">
         <v>35.729999999999997</v>
       </c>
-      <c r="AH30" s="52">
+      <c r="AH30" s="36">
         <f t="shared" si="1"/>
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34">
       <c r="A31" s="18">
         <v>1</v>
       </c>
@@ -4722,19 +5085,19 @@
       <c r="AE31" s="18">
         <v>0.01</v>
       </c>
-      <c r="AF31" s="52">
+      <c r="AF31" s="36">
         <f t="shared" si="0"/>
         <v>13799.999999999998</v>
       </c>
       <c r="AG31" s="18">
         <v>23.1</v>
       </c>
-      <c r="AH31" s="52">
+      <c r="AH31" s="36">
         <f t="shared" si="1"/>
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34">
       <c r="A32" s="13">
         <v>2</v>
       </c>
@@ -4826,7 +5189,7 @@
       <c r="AG32" s="30"/>
       <c r="AH32" s="30"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -4918,7 +5281,7 @@
       <c r="AG33" s="30"/>
       <c r="AH33" s="30"/>
     </row>
-    <row r="34" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="23">
         <v>2</v>
       </c>
@@ -5000,17 +5363,17 @@
       <c r="AA34" s="27">
         <v>6.4</v>
       </c>
-      <c r="AB34" s="50">
+      <c r="AB34" s="34">
         <v>0.306342</v>
       </c>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-    </row>
-    <row r="35" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+    </row>
+    <row r="35" spans="1:34" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AC1:AE1"/>
@@ -5023,7 +5386,3085 @@
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="U1:AA1"/>
   </mergeCells>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DD6EB2-1C77-4B7F-BCBF-6F517426BAE8}">
+  <dimension ref="A1:M142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D2">
+        <v>27.54</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>5600</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D3">
+        <v>27.54</v>
+      </c>
+      <c r="E3">
+        <v>0.02</v>
+      </c>
+      <c r="F3">
+        <v>5600</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D4">
+        <v>27.54</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>5600</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5">
+        <v>27.54</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>5600</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D6">
+        <v>27.54</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>5600</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D7">
+        <v>27.54</v>
+      </c>
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>5600</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D8">
+        <v>27.54</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>5600</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>0.68</v>
+      </c>
+      <c r="D9">
+        <v>30.34</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9">
+        <v>6800</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>0.68</v>
+      </c>
+      <c r="D10">
+        <v>30.34</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10">
+        <v>6800</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>0.68</v>
+      </c>
+      <c r="D11">
+        <v>30.34</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>6800</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0.68</v>
+      </c>
+      <c r="D12">
+        <v>30.34</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
+        <v>6800</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>0.68</v>
+      </c>
+      <c r="D13">
+        <v>30.34</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>6800</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <v>30.34</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>6800</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>0.68</v>
+      </c>
+      <c r="D15">
+        <v>30.34</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <v>6800</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D16">
+        <v>30.9</v>
+      </c>
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+      <c r="F16">
+        <v>11500</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D17">
+        <v>30.9</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="F17">
+        <v>11500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D18">
+        <v>30.9</v>
+      </c>
+      <c r="E18">
+        <v>0.02</v>
+      </c>
+      <c r="F18">
+        <v>11500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D19">
+        <v>30.9</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
+        <v>11500</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D20">
+        <v>30.9</v>
+      </c>
+      <c r="E20">
+        <v>0.02</v>
+      </c>
+      <c r="F20">
+        <v>11500</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D21">
+        <v>30.9</v>
+      </c>
+      <c r="E21">
+        <v>0.02</v>
+      </c>
+      <c r="F21">
+        <v>11500</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D22">
+        <v>30.9</v>
+      </c>
+      <c r="E22">
+        <v>0.02</v>
+      </c>
+      <c r="F22">
+        <v>11500</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>1.45</v>
+      </c>
+      <c r="D23">
+        <v>38.89</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>14500</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>1.45</v>
+      </c>
+      <c r="D24">
+        <v>38.89</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>14500</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>1.45</v>
+      </c>
+      <c r="D25">
+        <v>38.89</v>
+      </c>
+      <c r="E25">
+        <v>0.02</v>
+      </c>
+      <c r="F25">
+        <v>14500</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>1.45</v>
+      </c>
+      <c r="D26">
+        <v>38.89</v>
+      </c>
+      <c r="E26">
+        <v>0.02</v>
+      </c>
+      <c r="F26">
+        <v>14500</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>1.45</v>
+      </c>
+      <c r="D27">
+        <v>38.89</v>
+      </c>
+      <c r="E27">
+        <v>0.02</v>
+      </c>
+      <c r="F27">
+        <v>14500</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>1.45</v>
+      </c>
+      <c r="D28">
+        <v>38.89</v>
+      </c>
+      <c r="E28">
+        <v>0.02</v>
+      </c>
+      <c r="F28">
+        <v>14500</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>1.45</v>
+      </c>
+      <c r="D29">
+        <v>38.89</v>
+      </c>
+      <c r="E29">
+        <v>0.02</v>
+      </c>
+      <c r="F29">
+        <v>14500</v>
+      </c>
+      <c r="G29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30">
+        <v>0.76</v>
+      </c>
+      <c r="D30">
+        <v>35.92</v>
+      </c>
+      <c r="E30">
+        <v>0.02</v>
+      </c>
+      <c r="F30">
+        <v>7600</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <v>0.76</v>
+      </c>
+      <c r="D31">
+        <v>35.92</v>
+      </c>
+      <c r="E31">
+        <v>0.02</v>
+      </c>
+      <c r="F31">
+        <v>7600</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>0.76</v>
+      </c>
+      <c r="D32">
+        <v>35.92</v>
+      </c>
+      <c r="E32">
+        <v>0.02</v>
+      </c>
+      <c r="F32">
+        <v>7600</v>
+      </c>
+      <c r="G32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>0.76</v>
+      </c>
+      <c r="D33">
+        <v>35.92</v>
+      </c>
+      <c r="E33">
+        <v>0.02</v>
+      </c>
+      <c r="F33">
+        <v>7600</v>
+      </c>
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>0.76</v>
+      </c>
+      <c r="D34">
+        <v>35.92</v>
+      </c>
+      <c r="E34">
+        <v>0.02</v>
+      </c>
+      <c r="F34">
+        <v>7600</v>
+      </c>
+      <c r="G34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>0.76</v>
+      </c>
+      <c r="D35">
+        <v>35.92</v>
+      </c>
+      <c r="E35">
+        <v>0.02</v>
+      </c>
+      <c r="F35">
+        <v>7600</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36">
+        <v>0.76</v>
+      </c>
+      <c r="D36">
+        <v>35.92</v>
+      </c>
+      <c r="E36">
+        <v>0.02</v>
+      </c>
+      <c r="F36">
+        <v>7600</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>0.23</v>
+      </c>
+      <c r="D37">
+        <v>23.12</v>
+      </c>
+      <c r="E37">
+        <v>0.01</v>
+      </c>
+      <c r="F37">
+        <v>2300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>0.23</v>
+      </c>
+      <c r="D38">
+        <v>23.12</v>
+      </c>
+      <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="F38">
+        <v>2300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>0.23</v>
+      </c>
+      <c r="D39">
+        <v>23.12</v>
+      </c>
+      <c r="E39">
+        <v>0.01</v>
+      </c>
+      <c r="F39">
+        <v>2300</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40">
+        <v>0.23</v>
+      </c>
+      <c r="D40">
+        <v>23.12</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="F40">
+        <v>2300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>0.23</v>
+      </c>
+      <c r="D41">
+        <v>23.12</v>
+      </c>
+      <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="F41">
+        <v>2300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>0.23</v>
+      </c>
+      <c r="D42">
+        <v>23.12</v>
+      </c>
+      <c r="E42">
+        <v>0.01</v>
+      </c>
+      <c r="F42">
+        <v>2300</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <v>0.23</v>
+      </c>
+      <c r="D43">
+        <v>23.12</v>
+      </c>
+      <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="F43">
+        <v>2300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>0.97</v>
+      </c>
+      <c r="D44">
+        <v>34.65</v>
+      </c>
+      <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="F44">
+        <v>9700</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45">
+        <v>0.97</v>
+      </c>
+      <c r="D45">
+        <v>34.65</v>
+      </c>
+      <c r="E45">
+        <v>0.02</v>
+      </c>
+      <c r="F45">
+        <v>9700</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46">
+        <v>0.97</v>
+      </c>
+      <c r="D46">
+        <v>34.65</v>
+      </c>
+      <c r="E46">
+        <v>0.02</v>
+      </c>
+      <c r="F46">
+        <v>9700</v>
+      </c>
+      <c r="G46" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47">
+        <v>0.97</v>
+      </c>
+      <c r="D47">
+        <v>34.65</v>
+      </c>
+      <c r="E47">
+        <v>0.02</v>
+      </c>
+      <c r="F47">
+        <v>9700</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48">
+        <v>0.97</v>
+      </c>
+      <c r="D48">
+        <v>34.65</v>
+      </c>
+      <c r="E48">
+        <v>0.02</v>
+      </c>
+      <c r="F48">
+        <v>9700</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49">
+        <v>0.97</v>
+      </c>
+      <c r="D49">
+        <v>34.65</v>
+      </c>
+      <c r="E49">
+        <v>0.02</v>
+      </c>
+      <c r="F49">
+        <v>9700</v>
+      </c>
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50">
+        <v>0.97</v>
+      </c>
+      <c r="D50">
+        <v>34.65</v>
+      </c>
+      <c r="E50">
+        <v>0.02</v>
+      </c>
+      <c r="F50">
+        <v>9700</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51">
+        <v>0.7</v>
+      </c>
+      <c r="D51">
+        <v>22.9</v>
+      </c>
+      <c r="E51">
+        <v>0.01</v>
+      </c>
+      <c r="F51">
+        <v>7000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52">
+        <v>0.7</v>
+      </c>
+      <c r="D52">
+        <v>22.9</v>
+      </c>
+      <c r="E52">
+        <v>0.01</v>
+      </c>
+      <c r="F52">
+        <v>7000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53">
+        <v>0.7</v>
+      </c>
+      <c r="D53">
+        <v>22.9</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>7000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" t="s">
+        <v>121</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54">
+        <v>0.7</v>
+      </c>
+      <c r="D54">
+        <v>22.9</v>
+      </c>
+      <c r="E54">
+        <v>0.01</v>
+      </c>
+      <c r="F54">
+        <v>7000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>0.7</v>
+      </c>
+      <c r="D55">
+        <v>22.9</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+      <c r="F55">
+        <v>7000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <v>0.7</v>
+      </c>
+      <c r="D56">
+        <v>22.9</v>
+      </c>
+      <c r="E56">
+        <v>0.01</v>
+      </c>
+      <c r="F56">
+        <v>7000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>0.7</v>
+      </c>
+      <c r="D57">
+        <v>22.9</v>
+      </c>
+      <c r="E57">
+        <v>0.01</v>
+      </c>
+      <c r="F57">
+        <v>7000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58">
+        <v>1.27</v>
+      </c>
+      <c r="D58">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E58">
+        <v>0.02</v>
+      </c>
+      <c r="F58">
+        <v>12700</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59">
+        <v>1.27</v>
+      </c>
+      <c r="D59">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E59">
+        <v>0.02</v>
+      </c>
+      <c r="F59">
+        <v>12700</v>
+      </c>
+      <c r="G59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60">
+        <v>1.27</v>
+      </c>
+      <c r="D60">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E60">
+        <v>0.02</v>
+      </c>
+      <c r="F60">
+        <v>12700</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <v>1.27</v>
+      </c>
+      <c r="D61">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E61">
+        <v>0.02</v>
+      </c>
+      <c r="F61">
+        <v>12700</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62">
+        <v>1.27</v>
+      </c>
+      <c r="D62">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E62">
+        <v>0.02</v>
+      </c>
+      <c r="F62">
+        <v>12700</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63">
+        <v>1.27</v>
+      </c>
+      <c r="D63">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E63">
+        <v>0.02</v>
+      </c>
+      <c r="F63">
+        <v>12700</v>
+      </c>
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64">
+        <v>1.27</v>
+      </c>
+      <c r="D64">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="E64">
+        <v>0.02</v>
+      </c>
+      <c r="F64">
+        <v>12700</v>
+      </c>
+      <c r="G64" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" t="s">
+        <v>120</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65">
+        <v>1.38</v>
+      </c>
+      <c r="D65">
+        <v>23.1</v>
+      </c>
+      <c r="E65">
+        <v>0.01</v>
+      </c>
+      <c r="F65">
+        <v>13800</v>
+      </c>
+      <c r="G65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66">
+        <v>1.38</v>
+      </c>
+      <c r="D66">
+        <v>23.1</v>
+      </c>
+      <c r="E66">
+        <v>0.01</v>
+      </c>
+      <c r="F66">
+        <v>13800</v>
+      </c>
+      <c r="G66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67">
+        <v>1.38</v>
+      </c>
+      <c r="D67">
+        <v>23.1</v>
+      </c>
+      <c r="E67">
+        <v>0.01</v>
+      </c>
+      <c r="F67">
+        <v>13800</v>
+      </c>
+      <c r="G67" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68">
+        <v>1.38</v>
+      </c>
+      <c r="D68">
+        <v>23.1</v>
+      </c>
+      <c r="E68">
+        <v>0.01</v>
+      </c>
+      <c r="F68">
+        <v>13800</v>
+      </c>
+      <c r="G68" t="s">
+        <v>119</v>
+      </c>
+      <c r="H68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69">
+        <v>1.38</v>
+      </c>
+      <c r="D69">
+        <v>23.1</v>
+      </c>
+      <c r="E69">
+        <v>0.01</v>
+      </c>
+      <c r="F69">
+        <v>13800</v>
+      </c>
+      <c r="G69" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70">
+        <v>1.38</v>
+      </c>
+      <c r="D70">
+        <v>23.1</v>
+      </c>
+      <c r="E70">
+        <v>0.01</v>
+      </c>
+      <c r="F70">
+        <v>13800</v>
+      </c>
+      <c r="G70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" t="s">
+        <v>121</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71">
+        <v>1.38</v>
+      </c>
+      <c r="D71">
+        <v>23.1</v>
+      </c>
+      <c r="E71">
+        <v>0.01</v>
+      </c>
+      <c r="F71">
+        <v>13800</v>
+      </c>
+      <c r="G71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>5600</v>
+      </c>
+      <c r="D73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74">
+        <v>5600</v>
+      </c>
+      <c r="D74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>5600</v>
+      </c>
+      <c r="D75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>5600</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77">
+        <v>5600</v>
+      </c>
+      <c r="D77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78">
+        <v>5600</v>
+      </c>
+      <c r="D78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>5600</v>
+      </c>
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>6800</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81">
+        <v>6800</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>6800</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <v>6800</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>6800</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>6800</v>
+      </c>
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86">
+        <v>6800</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87">
+        <v>11500</v>
+      </c>
+      <c r="D87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>11500</v>
+      </c>
+      <c r="D88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89">
+        <v>11500</v>
+      </c>
+      <c r="D89" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90">
+        <v>11500</v>
+      </c>
+      <c r="D90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91">
+        <v>11500</v>
+      </c>
+      <c r="D91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92">
+        <v>11500</v>
+      </c>
+      <c r="D92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93">
+        <v>11500</v>
+      </c>
+      <c r="D93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <v>14500</v>
+      </c>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95">
+        <v>14500</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96">
+        <v>14500</v>
+      </c>
+      <c r="D96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97">
+        <v>14500</v>
+      </c>
+      <c r="D97" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98">
+        <v>14500</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99">
+        <v>14500</v>
+      </c>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100">
+        <v>14500</v>
+      </c>
+      <c r="D100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101">
+        <v>7600</v>
+      </c>
+      <c r="D101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102">
+        <v>7600</v>
+      </c>
+      <c r="D102" t="s">
+        <v>114</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103">
+        <v>7600</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104">
+        <v>7600</v>
+      </c>
+      <c r="D104" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105">
+        <v>7600</v>
+      </c>
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106">
+        <v>7600</v>
+      </c>
+      <c r="D106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107">
+        <v>7600</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108">
+        <v>2300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109">
+        <v>2300</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110">
+        <v>2300</v>
+      </c>
+      <c r="D110" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111">
+        <v>2300</v>
+      </c>
+      <c r="D111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112">
+        <v>2300</v>
+      </c>
+      <c r="D112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113">
+        <v>2300</v>
+      </c>
+      <c r="D113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114">
+        <v>2300</v>
+      </c>
+      <c r="D114" t="s">
+        <v>115</v>
+      </c>
+      <c r="E114" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115">
+        <v>9700</v>
+      </c>
+      <c r="D115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116">
+        <v>9700</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117">
+        <v>9700</v>
+      </c>
+      <c r="D117" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118">
+        <v>9700</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119">
+        <v>9700</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120">
+        <v>9700</v>
+      </c>
+      <c r="D120" t="s">
+        <v>116</v>
+      </c>
+      <c r="E120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121">
+        <v>9700</v>
+      </c>
+      <c r="D121" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122">
+        <v>7000</v>
+      </c>
+      <c r="D122" t="s">
+        <v>117</v>
+      </c>
+      <c r="E122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123">
+        <v>7000</v>
+      </c>
+      <c r="D123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124">
+        <v>7000</v>
+      </c>
+      <c r="D124" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125">
+        <v>7000</v>
+      </c>
+      <c r="D125" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126">
+        <v>7000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>117</v>
+      </c>
+      <c r="E126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127">
+        <v>7000</v>
+      </c>
+      <c r="D127" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128">
+        <v>7000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129">
+        <v>12700</v>
+      </c>
+      <c r="D129" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130">
+        <v>12700</v>
+      </c>
+      <c r="D130" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131">
+        <v>12700</v>
+      </c>
+      <c r="D131" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132">
+        <v>12700</v>
+      </c>
+      <c r="D132" t="s">
+        <v>118</v>
+      </c>
+      <c r="E132" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133">
+        <v>12700</v>
+      </c>
+      <c r="D133" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134">
+        <v>12700</v>
+      </c>
+      <c r="D134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135">
+        <v>12700</v>
+      </c>
+      <c r="D135" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136">
+        <v>13800</v>
+      </c>
+      <c r="D136" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137">
+        <v>13800</v>
+      </c>
+      <c r="D137" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138">
+        <v>13800</v>
+      </c>
+      <c r="D138" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139">
+        <v>13800</v>
+      </c>
+      <c r="D139" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140">
+        <v>13800</v>
+      </c>
+      <c r="D140" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141">
+        <v>13800</v>
+      </c>
+      <c r="D141" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142">
+        <v>13800</v>
+      </c>
+      <c r="D142" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Field Report 3 oktober.xlsx
+++ b/Field Report 3 oktober.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Gweh\Kuliah\Semester-9\Proposal Skripsi\hitungnpk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B6D9C-241D-4A2B-B7AB-53F6B06C4458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95923729-0D2D-4647-8769-857F6C8DDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="2" xr2:uid="{11896DCB-E961-45D0-9E9E-2BE6AFEF41FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{11896DCB-E961-45D0-9E9E-2BE6AFEF41FD}"/>
   </bookViews>
   <sheets>
     <sheet name="13 Sept 2024" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="122">
   <si>
     <t>Prioritas</t>
   </si>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA52A96-74CC-430D-8D31-EC7E9FA81CE9}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2237,10 +2237,10 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB44" sqref="AB44"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5394,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DD6EB2-1C77-4B7F-BCBF-6F517426BAE8}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5405,7 +5405,7 @@
     <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5433,8 +5433,30 @@
       <c r="I1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="K1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+    </row>
+    <row r="2" spans="1:22" ht="18.600000000000001" thickBot="1">
       <c r="A2">
         <v>7</v>
       </c>
@@ -5462,11 +5484,38 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="29">
+        <v>214</v>
+      </c>
+      <c r="M2" s="29">
+        <v>300</v>
+      </c>
+      <c r="N2" s="29">
+        <v>319</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.600000000000001" thickTop="1">
       <c r="A3">
         <v>7</v>
       </c>
@@ -5494,11 +5543,26 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="K3" s="13">
+        <v>2</v>
+      </c>
+      <c r="L3" s="29">
+        <v>172</v>
+      </c>
+      <c r="M3" s="29">
+        <v>258</v>
+      </c>
+      <c r="N3" s="29">
+        <v>276</v>
+      </c>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5526,11 +5590,26 @@
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="13">
+        <v>3</v>
+      </c>
+      <c r="L4" s="29">
+        <v>157</v>
+      </c>
+      <c r="M4" s="29">
+        <v>243</v>
+      </c>
+      <c r="N4" s="29">
+        <v>260</v>
+      </c>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>7</v>
       </c>
@@ -5558,11 +5637,26 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="13">
+        <v>4</v>
+      </c>
+      <c r="L5" s="29">
+        <v>246</v>
+      </c>
+      <c r="M5" s="29">
+        <v>331</v>
+      </c>
+      <c r="N5" s="29">
+        <v>350</v>
+      </c>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>7</v>
       </c>
@@ -5590,11 +5684,40 @@
       <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="K6" s="13">
+        <v>5</v>
+      </c>
+      <c r="L6" s="29">
+        <v>217</v>
+      </c>
+      <c r="M6" s="29">
+        <v>303</v>
+      </c>
+      <c r="N6" s="29">
+        <v>321</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R6" s="18">
+        <v>27.54</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="36">
+        <f>Q6*10000</f>
+        <v>5600.0000000000009</v>
+      </c>
+      <c r="U6" s="18">
+        <v>27.54</v>
+      </c>
+      <c r="V6" s="36">
+        <f>(S6*39.1)*0.1</f>
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5622,11 +5745,40 @@
       <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K7" s="13">
+        <v>6</v>
+      </c>
+      <c r="L7" s="29">
+        <v>155</v>
+      </c>
+      <c r="M7" s="29">
+        <v>240</v>
+      </c>
+      <c r="N7" s="29">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="R7" s="18">
+        <v>30.34</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="36">
+        <f t="shared" ref="T7:T17" si="0">Q7*10000</f>
+        <v>6800.0000000000009</v>
+      </c>
+      <c r="U7" s="18">
+        <v>30.34</v>
+      </c>
+      <c r="V7" s="36">
+        <f t="shared" ref="V7:V17" si="1">(S7*39.1)*0.1</f>
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5654,8 +5806,26 @@
       <c r="I8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="K8" s="13">
+        <v>7</v>
+      </c>
+      <c r="L8" s="29">
+        <v>218</v>
+      </c>
+      <c r="M8" s="29">
+        <v>304</v>
+      </c>
+      <c r="N8" s="29">
+        <v>323</v>
+      </c>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>10</v>
       </c>
@@ -5683,8 +5853,18 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="K9" s="13"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5712,8 +5892,18 @@
       <c r="I10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="K10" s="13"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5741,8 +5931,14 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5770,8 +5966,14 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5799,8 +6001,14 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5828,8 +6036,28 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="Q14" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R14" s="18">
+        <v>30.9</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T14" s="36">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="U14" s="18">
+        <v>30.9</v>
+      </c>
+      <c r="V14" s="36">
+        <f t="shared" si="1"/>
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5857,8 +6085,28 @@
       <c r="I15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="Q15" s="18">
+        <v>1.45</v>
+      </c>
+      <c r="R15" s="18">
+        <v>38.89</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="U15" s="18">
+        <v>38.89</v>
+      </c>
+      <c r="V15" s="36">
+        <f t="shared" si="1"/>
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>23</v>
       </c>
@@ -5886,8 +6134,28 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="Q16" s="18">
+        <v>0.76</v>
+      </c>
+      <c r="R16" s="18">
+        <v>35.92</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T16" s="36">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+      <c r="U16" s="18">
+        <v>35.92</v>
+      </c>
+      <c r="V16" s="36">
+        <f t="shared" si="1"/>
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>23</v>
       </c>
@@ -5915,8 +6183,28 @@
       <c r="I17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="Q17" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="R17" s="18">
+        <v>23.12</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="T17" s="36">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="U17" s="18">
+        <v>23.12</v>
+      </c>
+      <c r="V17" s="36">
+        <f t="shared" si="1"/>
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>23</v>
       </c>
@@ -5945,7 +6233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>23</v>
       </c>
@@ -5974,7 +6262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>23</v>
       </c>
@@ -6003,7 +6291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>23</v>
       </c>
@@ -6032,7 +6320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>23</v>
       </c>
@@ -6061,7 +6349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>26</v>
       </c>
@@ -6090,7 +6378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>26</v>
       </c>
@@ -6119,7 +6407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>26</v>
       </c>
@@ -6148,7 +6436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>26</v>
       </c>
@@ -6177,7 +6465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6206,7 +6494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6235,7 +6523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>26</v>
       </c>
@@ -6264,7 +6552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6293,7 +6581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>28</v>
       </c>
@@ -6322,7 +6610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>28</v>
       </c>
@@ -6351,7 +6639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>28</v>
       </c>
@@ -6380,7 +6668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>28</v>
       </c>
@@ -6409,7 +6697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>28</v>
       </c>
@@ -6438,7 +6726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>28</v>
       </c>
@@ -6467,7 +6755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>30</v>
       </c>
@@ -6496,7 +6784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>30</v>
       </c>
@@ -6525,7 +6813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>30</v>
       </c>
@@ -6554,7 +6842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>30</v>
       </c>
@@ -6583,7 +6871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>30</v>
       </c>
@@ -6612,7 +6900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>30</v>
       </c>
@@ -6641,7 +6929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>30</v>
       </c>
@@ -6670,7 +6958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>39</v>
       </c>
@@ -6699,7 +6987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>39</v>
       </c>
@@ -6728,7 +7016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>39</v>
       </c>
@@ -6757,7 +7045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>39</v>
       </c>
@@ -6786,7 +7074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>39</v>
       </c>
@@ -6814,8 +7102,11 @@
       <c r="I48" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="O48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>39</v>
       </c>
@@ -6843,8 +7134,11 @@
       <c r="I49" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="O49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>39</v>
       </c>
@@ -6872,8 +7166,11 @@
       <c r="I50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="O50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>42</v>
       </c>
@@ -6901,8 +7198,11 @@
       <c r="I51" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="O51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>42</v>
       </c>
@@ -6930,8 +7230,11 @@
       <c r="I52" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="O52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>42</v>
       </c>
@@ -6959,8 +7262,11 @@
       <c r="I53" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="O53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>42</v>
       </c>
@@ -6989,7 +7295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>42</v>
       </c>
@@ -7018,7 +7324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>42</v>
       </c>
@@ -7047,7 +7353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>42</v>
       </c>
@@ -7076,7 +7382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7105,7 +7411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>55</v>
       </c>
@@ -7134,7 +7440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>55</v>
       </c>
@@ -7163,7 +7469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>55</v>
       </c>
@@ -7192,7 +7498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>55</v>
       </c>
@@ -7221,7 +7527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>55</v>
       </c>
@@ -7250,7 +7556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>55</v>
       </c>
@@ -7482,987 +7788,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73">
-        <v>5600</v>
-      </c>
-      <c r="D73" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74">
-        <v>5600</v>
-      </c>
-      <c r="D74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75">
-        <v>5600</v>
-      </c>
-      <c r="D75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76">
-        <v>5600</v>
-      </c>
-      <c r="D76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="B77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77">
-        <v>5600</v>
-      </c>
-      <c r="D77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="B78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78">
-        <v>5600</v>
-      </c>
-      <c r="D78" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79">
-        <v>5600</v>
-      </c>
-      <c r="D79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80">
-        <v>6800</v>
-      </c>
-      <c r="D80" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81">
-        <v>6800</v>
-      </c>
-      <c r="D81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82">
-        <v>6800</v>
-      </c>
-      <c r="D82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83">
-        <v>6800</v>
-      </c>
-      <c r="D83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84">
-        <v>6800</v>
-      </c>
-      <c r="D84" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85">
-        <v>6800</v>
-      </c>
-      <c r="D85" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86">
-        <v>6800</v>
-      </c>
-      <c r="D86" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87">
-        <v>11500</v>
-      </c>
-      <c r="D87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88">
-        <v>11500</v>
-      </c>
-      <c r="D88" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" t="s">
-        <v>50</v>
-      </c>
-      <c r="C89">
-        <v>11500</v>
-      </c>
-      <c r="D89" t="s">
-        <v>112</v>
-      </c>
-      <c r="E89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90">
-        <v>11500</v>
-      </c>
-      <c r="D90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91">
-        <v>11500</v>
-      </c>
-      <c r="D91" t="s">
-        <v>112</v>
-      </c>
-      <c r="E91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C92">
-        <v>11500</v>
-      </c>
-      <c r="D92" t="s">
-        <v>112</v>
-      </c>
-      <c r="E92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93">
-        <v>11500</v>
-      </c>
-      <c r="D93" t="s">
-        <v>112</v>
-      </c>
-      <c r="E93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94">
-        <v>14500</v>
-      </c>
-      <c r="D94" t="s">
-        <v>113</v>
-      </c>
-      <c r="E94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95">
-        <v>14500</v>
-      </c>
-      <c r="D95" t="s">
-        <v>113</v>
-      </c>
-      <c r="E95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96">
-        <v>14500</v>
-      </c>
-      <c r="D96" t="s">
-        <v>113</v>
-      </c>
-      <c r="E96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97">
-        <v>14500</v>
-      </c>
-      <c r="D97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98">
-        <v>14500</v>
-      </c>
-      <c r="D98" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99">
-        <v>14500</v>
-      </c>
-      <c r="D99" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100">
-        <v>14500</v>
-      </c>
-      <c r="D100" t="s">
-        <v>113</v>
-      </c>
-      <c r="E100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" t="s">
-        <v>68</v>
-      </c>
-      <c r="C101">
-        <v>7600</v>
-      </c>
-      <c r="D101" t="s">
-        <v>114</v>
-      </c>
-      <c r="E101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102">
-        <v>7600</v>
-      </c>
-      <c r="D102" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103">
-        <v>7600</v>
-      </c>
-      <c r="D103" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104">
-        <v>7600</v>
-      </c>
-      <c r="D104" t="s">
-        <v>114</v>
-      </c>
-      <c r="E104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105">
-        <v>7600</v>
-      </c>
-      <c r="D105" t="s">
-        <v>114</v>
-      </c>
-      <c r="E105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106">
-        <v>7600</v>
-      </c>
-      <c r="D106" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C107">
-        <v>7600</v>
-      </c>
-      <c r="D107" t="s">
-        <v>114</v>
-      </c>
-      <c r="E107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108">
-        <v>2300</v>
-      </c>
-      <c r="D108" t="s">
-        <v>115</v>
-      </c>
-      <c r="E108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109">
-        <v>2300</v>
-      </c>
-      <c r="D109" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110">
-        <v>2300</v>
-      </c>
-      <c r="D110" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111">
-        <v>2300</v>
-      </c>
-      <c r="D111" t="s">
-        <v>115</v>
-      </c>
-      <c r="E111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112">
-        <v>2300</v>
-      </c>
-      <c r="D112" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113">
-        <v>2300</v>
-      </c>
-      <c r="D113" t="s">
-        <v>115</v>
-      </c>
-      <c r="E113" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114">
-        <v>2300</v>
-      </c>
-      <c r="D114" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115">
-        <v>9700</v>
-      </c>
-      <c r="D115" t="s">
-        <v>116</v>
-      </c>
-      <c r="E115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116">
-        <v>9700</v>
-      </c>
-      <c r="D116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E116" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" t="s">
-        <v>84</v>
-      </c>
-      <c r="C117">
-        <v>9700</v>
-      </c>
-      <c r="D117" t="s">
-        <v>116</v>
-      </c>
-      <c r="E117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C118">
-        <v>9700</v>
-      </c>
-      <c r="D118" t="s">
-        <v>116</v>
-      </c>
-      <c r="E118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C119">
-        <v>9700</v>
-      </c>
-      <c r="D119" t="s">
-        <v>116</v>
-      </c>
-      <c r="E119" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" t="s">
-        <v>87</v>
-      </c>
-      <c r="C120">
-        <v>9700</v>
-      </c>
-      <c r="D120" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121">
-        <v>9700</v>
-      </c>
-      <c r="D121" t="s">
-        <v>116</v>
-      </c>
-      <c r="E121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122">
-        <v>7000</v>
-      </c>
-      <c r="D122" t="s">
-        <v>117</v>
-      </c>
-      <c r="E122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" t="s">
-        <v>90</v>
-      </c>
-      <c r="C123">
-        <v>7000</v>
-      </c>
-      <c r="D123" t="s">
-        <v>117</v>
-      </c>
-      <c r="E123" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124">
-        <v>7000</v>
-      </c>
-      <c r="D124" t="s">
-        <v>117</v>
-      </c>
-      <c r="E124" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" t="s">
-        <v>92</v>
-      </c>
-      <c r="C125">
-        <v>7000</v>
-      </c>
-      <c r="D125" t="s">
-        <v>117</v>
-      </c>
-      <c r="E125" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126">
-        <v>7000</v>
-      </c>
-      <c r="D126" t="s">
-        <v>117</v>
-      </c>
-      <c r="E126" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" t="s">
-        <v>94</v>
-      </c>
-      <c r="C127">
-        <v>7000</v>
-      </c>
-      <c r="D127" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128">
-        <v>7000</v>
-      </c>
-      <c r="D128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E128" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" t="s">
-        <v>96</v>
-      </c>
-      <c r="C129">
-        <v>12700</v>
-      </c>
-      <c r="D129" t="s">
-        <v>118</v>
-      </c>
-      <c r="E129" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130">
-        <v>12700</v>
-      </c>
-      <c r="D130" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131">
-        <v>12700</v>
-      </c>
-      <c r="D131" t="s">
-        <v>118</v>
-      </c>
-      <c r="E131" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132">
-        <v>12700</v>
-      </c>
-      <c r="D132" t="s">
-        <v>118</v>
-      </c>
-      <c r="E132" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133">
-        <v>12700</v>
-      </c>
-      <c r="D133" t="s">
-        <v>118</v>
-      </c>
-      <c r="E133" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134">
-        <v>12700</v>
-      </c>
-      <c r="D134" t="s">
-        <v>118</v>
-      </c>
-      <c r="E134" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
-        <v>102</v>
-      </c>
-      <c r="C135">
-        <v>12700</v>
-      </c>
-      <c r="D135" t="s">
-        <v>118</v>
-      </c>
-      <c r="E135" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" t="s">
-        <v>103</v>
-      </c>
-      <c r="C136">
-        <v>13800</v>
-      </c>
-      <c r="D136" t="s">
-        <v>119</v>
-      </c>
-      <c r="E136" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" t="s">
-        <v>104</v>
-      </c>
-      <c r="C137">
-        <v>13800</v>
-      </c>
-      <c r="D137" t="s">
-        <v>119</v>
-      </c>
-      <c r="E137" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" t="s">
-        <v>105</v>
-      </c>
-      <c r="C138">
-        <v>13800</v>
-      </c>
-      <c r="D138" t="s">
-        <v>119</v>
-      </c>
-      <c r="E138" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" t="s">
-        <v>106</v>
-      </c>
-      <c r="C139">
-        <v>13800</v>
-      </c>
-      <c r="D139" t="s">
-        <v>119</v>
-      </c>
-      <c r="E139" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" t="s">
-        <v>107</v>
-      </c>
-      <c r="C140">
-        <v>13800</v>
-      </c>
-      <c r="D140" t="s">
-        <v>119</v>
-      </c>
-      <c r="E140" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" t="s">
-        <v>108</v>
-      </c>
-      <c r="C141">
-        <v>13800</v>
-      </c>
-      <c r="D141" t="s">
-        <v>119</v>
-      </c>
-      <c r="E141" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" t="s">
-        <v>109</v>
-      </c>
-      <c r="C142">
-        <v>13800</v>
-      </c>
-      <c r="D142" t="s">
-        <v>119</v>
-      </c>
-      <c r="E142" t="s">
-        <v>121</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
